--- a/files/xlsx/planRepair/план на июнь-декабрь 2020.xlsx
+++ b/files/xlsx/planRepair/план на июнь-декабрь 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="900" windowWidth="27495" windowHeight="11850"/>
+    <workbookView xWindow="630" yWindow="960" windowWidth="27495" windowHeight="11790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="50" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="295">
   <si>
     <t>неисправность гидравлики</t>
   </si>
@@ -1190,6 +1190,12 @@
   </si>
   <si>
     <t>неисправность шпиндельного узла неисправность пневматики неисправность электроаппаратуры</t>
+  </si>
+  <si>
+    <t>Предложение от производства</t>
+  </si>
+  <si>
+    <t>По результатам анализа аварийных выходов из строя с предыдущего периода (2019 год)</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1920,17 +1926,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
@@ -2034,7 +2029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2118,8 +2113,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2147,7 +2140,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2269,7 +2261,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2297,9 +2288,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2391,7 +2379,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2400,32 +2388,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2435,7 +2423,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2444,7 +2432,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2453,8 +2441,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2462,12 +2453,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2501,12 +2522,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2517,12 +2532,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2831,9 +2840,9 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2855,129 +2864,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="177" t="s">
+      <c r="E2" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="179" t="s">
+      <c r="F2" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="179" t="s">
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="181"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="187"/>
     </row>
     <row r="3" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="110" t="s">
+      <c r="A3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="110" t="s">
+      <c r="J3" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="140" t="s">
+      <c r="L3" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="144" t="s">
+      <c r="N3" s="139" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109">
+      <c r="A4" s="167">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="35">
         <v>170008</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>1219060004</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
         <v>220</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="42" t="s">
+      <c r="G4" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="166" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="161" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3004,20 +3013,20 @@
       <c r="I5" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="96" t="s">
         <v>283</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="167" t="s">
+      <c r="M5" s="138"/>
+      <c r="N5" s="162" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -3033,23 +3042,25 @@
       <c r="F6" s="19"/>
       <c r="G6" s="17"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="111" t="s">
+      <c r="I6" s="92"/>
+      <c r="J6" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="117" t="s">
+      <c r="K6" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="112" t="s">
         <v>270</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="N6" s="165" t="s">
+      <c r="N6" s="160" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="42">
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -3065,23 +3076,25 @@
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="111" t="s">
+      <c r="I7" s="92"/>
+      <c r="J7" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="117" t="s">
+      <c r="K7" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="112" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="165" t="s">
+      <c r="N7" s="160" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="42">
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -3097,23 +3110,25 @@
       <c r="F8" s="19"/>
       <c r="G8" s="17"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="111" t="s">
+      <c r="I8" s="92"/>
+      <c r="J8" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="117" t="s">
+      <c r="K8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" s="112" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="N8" s="165" t="s">
+      <c r="N8" s="160" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="42">
         <v>6</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -3131,85 +3146,91 @@
       <c r="F9" s="19"/>
       <c r="G9" s="17"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="111" t="s">
+      <c r="I9" s="92"/>
+      <c r="J9" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="117" t="s">
+      <c r="K9" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="112" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="N9" s="165" t="s">
+      <c r="N9" s="160" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+      <c r="A10" s="43">
         <v>7</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="47">
         <v>700008</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="112" t="s">
+      <c r="E10" s="47"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="118" t="s">
+      <c r="K10" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="146" t="s">
+      <c r="M10" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="N10" s="168" t="s">
+      <c r="N10" s="163" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102">
+      <c r="A11" s="98">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="65">
         <v>190402</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="65">
         <v>1219060003</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="65">
         <v>200</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104" t="s">
+      <c r="F11" s="66"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100" t="s">
         <v>284</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="72"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="69" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="41">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3226,20 +3247,20 @@
       <c r="G12" s="8"/>
       <c r="H12" s="10"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="101" t="s">
+      <c r="J12" s="97" t="s">
         <v>284</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="72" t="s">
+      <c r="M12" s="120"/>
+      <c r="N12" s="69" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="41">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3258,18 +3279,18 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="101" t="s">
+      <c r="J13" s="97" t="s">
         <v>284</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="54"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="41">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3288,84 +3309,82 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="101" t="s">
+      <c r="J14" s="97" t="s">
         <v>284</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="K14" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="149" t="s">
+      <c r="M14" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="N14" s="147"/>
-    </row>
-    <row r="15" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
+      <c r="N14" s="142"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43">
         <v>12</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="87">
         <v>700001</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="113" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="N15" s="91" t="s">
+      <c r="L15" s="46"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="88" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="A16" s="33">
         <v>13</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="35">
         <v>80004</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="35">
         <v>1215050002</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="35">
         <v>1072</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="107" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="103" t="s">
         <v>285</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="71"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="41">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3384,7 +3403,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="101" t="s">
+      <c r="J17" s="97" t="s">
         <v>285</v>
       </c>
       <c r="K17" s="6" t="s">
@@ -3392,16 +3411,16 @@
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="73"/>
+      <c r="N17" s="70"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="A18" s="41">
         <v>15</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="72">
         <v>80002</v>
       </c>
       <c r="D18" s="16">
@@ -3414,7 +3433,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="101" t="s">
+      <c r="J18" s="97" t="s">
         <v>285</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -3422,10 +3441,10 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="73"/>
+      <c r="N18" s="70"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
+      <c r="A19" s="42">
         <v>16</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -3441,21 +3460,21 @@
       <c r="F19" s="19"/>
       <c r="G19" s="17"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="114" t="s">
+      <c r="I19" s="92"/>
+      <c r="J19" s="109" t="s">
         <v>285</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="17"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="92" t="s">
+      <c r="M19" s="137"/>
+      <c r="N19" s="89" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
+      <c r="A20" s="41">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3482,20 +3501,22 @@
       <c r="I20" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="J20" s="101" t="s">
+      <c r="J20" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="K20" s="32"/>
+      <c r="K20" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L20" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="149" t="s">
+      <c r="M20" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="N20" s="147"/>
+      <c r="N20" s="142"/>
     </row>
     <row r="21" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="A21" s="41">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3512,20 +3533,22 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="101" t="s">
+      <c r="J21" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="K21" s="32"/>
+      <c r="K21" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="149" t="s">
+      <c r="M21" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="147"/>
+      <c r="N21" s="142"/>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+      <c r="A22" s="41">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3542,20 +3565,22 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="101" t="s">
+      <c r="J22" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="K22" s="32"/>
+      <c r="K22" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="149" t="s">
+      <c r="M22" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="N22" s="147"/>
+      <c r="N22" s="142"/>
     </row>
     <row r="23" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+      <c r="A23" s="41">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3572,84 +3597,90 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="101" t="s">
+      <c r="J23" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="K23" s="32"/>
+      <c r="K23" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="149" t="s">
+      <c r="M23" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="N23" s="147"/>
+      <c r="N23" s="142"/>
     </row>
     <row r="24" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57">
+      <c r="A24" s="54">
         <v>21</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="56">
         <v>50017</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="56">
         <v>1215050022</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="56">
         <v>442</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="108" t="s">
+      <c r="F24" s="63"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="K24" s="98"/>
-      <c r="L24" s="121" t="s">
+      <c r="K24" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="155" t="s">
+      <c r="M24" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="N24" s="150"/>
+      <c r="N24" s="145"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="33">
         <v>22</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="35">
         <v>390004</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="35">
         <v>1215050030</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="35">
         <v>4312</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="107" t="s">
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="103" t="s">
         <v>286</v>
       </c>
-      <c r="K25" s="41"/>
-      <c r="L25" s="94" t="s">
+      <c r="K25" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="M25" s="156" t="s">
+      <c r="M25" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="151"/>
+      <c r="N25" s="146"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+      <c r="A26" s="41">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3666,18 +3697,18 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="101" t="s">
+      <c r="J26" s="97" t="s">
         <v>286</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="29"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="147"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="142"/>
     </row>
     <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="A27" s="41">
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3696,20 +3727,22 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="101" t="s">
+      <c r="J27" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="K27" s="32"/>
+      <c r="K27" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L27" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="149" t="s">
+      <c r="M27" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="N27" s="147"/>
+      <c r="N27" s="142"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="A28" s="41">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3726,18 +3759,18 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="101" t="s">
+      <c r="J28" s="97" t="s">
         <v>286</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="28"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="152"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="147"/>
     </row>
     <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+      <c r="A29" s="41">
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3756,20 +3789,22 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="101" t="s">
+      <c r="J29" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="K29" s="32"/>
+      <c r="K29" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L29" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="149" t="s">
+      <c r="M29" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="N29" s="147"/>
+      <c r="N29" s="142"/>
     </row>
     <row r="30" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
+      <c r="A30" s="41">
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3786,20 +3821,22 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="101" t="s">
+      <c r="J30" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="K30" s="32"/>
+      <c r="K30" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L30" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="149" t="s">
+      <c r="M30" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="N30" s="147"/>
+      <c r="N30" s="142"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="41">
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3818,18 +3855,18 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="101" t="s">
+      <c r="J31" s="97" t="s">
         <v>286</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L31" s="28"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="152"/>
+      <c r="M31" s="148"/>
+      <c r="N31" s="147"/>
     </row>
     <row r="32" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
+      <c r="A32" s="41">
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3854,80 +3891,84 @@
       <c r="I32" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="J32" s="101" t="s">
+      <c r="J32" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="K32" s="32"/>
+      <c r="K32" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L32" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="149" t="s">
+      <c r="M32" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="N32" s="147"/>
+      <c r="N32" s="142"/>
     </row>
     <row r="33" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57">
+      <c r="A33" s="54">
         <v>30</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="59">
+      <c r="C33" s="59"/>
+      <c r="D33" s="56">
         <v>1215170034</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="56">
         <v>600</v>
       </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="108" t="s">
+      <c r="F33" s="63"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="K33" s="98"/>
-      <c r="L33" s="121" t="s">
+      <c r="K33" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="155" t="s">
+      <c r="M33" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="N33" s="150"/>
+      <c r="N33" s="145"/>
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="A34" s="33">
         <v>31</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="35">
         <v>640007</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="35">
         <v>1674050012</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="35">
         <v>673</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="107" t="s">
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="K34" s="36" t="s">
+      <c r="K34" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="39"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="65"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="62"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="41">
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3946,18 +3987,18 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="101" t="s">
+      <c r="J35" s="97" t="s">
         <v>287</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="10"/>
-      <c r="M35" s="148"/>
-      <c r="N35" s="54"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="51"/>
     </row>
     <row r="36" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
+      <c r="A36" s="41">
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -3984,80 +4025,82 @@
       <c r="I36" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="101" t="s">
+      <c r="J36" s="97" t="s">
         <v>287</v>
       </c>
-      <c r="K36" s="32"/>
+      <c r="K36" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L36" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="149" t="s">
+      <c r="M36" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="N36" s="147"/>
+      <c r="N36" s="142"/>
     </row>
     <row r="37" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="57">
+      <c r="A37" s="54">
         <v>34</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="56">
         <v>640003</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="56">
         <v>1674050009</v>
       </c>
-      <c r="E37" s="59">
+      <c r="E37" s="56">
         <v>1727</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="108" t="s">
+      <c r="F37" s="63"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="104" t="s">
         <v>287</v>
       </c>
-      <c r="K37" s="58" t="s">
+      <c r="K37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="74"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="71"/>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
+      <c r="A38" s="33">
         <v>35</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="35">
         <v>640010</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="35">
         <v>1674050014</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="35">
         <v>750</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="107" t="s">
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="40"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="154"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="149"/>
     </row>
     <row r="39" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
+      <c r="A39" s="41">
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -4074,46 +4117,46 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="101" t="s">
+      <c r="J39" s="97" t="s">
         <v>288</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="29"/>
-      <c r="M39" s="149"/>
-      <c r="N39" s="147"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="142"/>
     </row>
     <row r="40" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
+      <c r="A40" s="41">
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="68">
+      <c r="C40" s="67"/>
+      <c r="D40" s="65">
         <v>1215160016</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="65">
         <v>1165</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="101" t="s">
+      <c r="J40" s="97" t="s">
         <v>288</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L40" s="29"/>
-      <c r="M40" s="149"/>
-      <c r="N40" s="147"/>
+      <c r="M40" s="144"/>
+      <c r="N40" s="142"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
+      <c r="A41" s="41">
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -4132,20 +4175,22 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="101" t="s">
+      <c r="J41" s="97" t="s">
         <v>288</v>
       </c>
-      <c r="K41" s="32"/>
+      <c r="K41" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L41" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="149" t="s">
+      <c r="M41" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="147"/>
+      <c r="N41" s="142"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
+      <c r="A42" s="41">
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -4162,20 +4207,22 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="101" t="s">
+      <c r="J42" s="97" t="s">
         <v>288</v>
       </c>
-      <c r="K42" s="32"/>
+      <c r="K42" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L42" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="149" t="s">
+      <c r="M42" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="N42" s="147"/>
+      <c r="N42" s="142"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
+      <c r="A43" s="41">
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -4194,20 +4241,22 @@
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="101" t="s">
+      <c r="J43" s="97" t="s">
         <v>288</v>
       </c>
-      <c r="K43" s="32"/>
+      <c r="K43" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L43" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="149" t="s">
+      <c r="M43" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="N43" s="147"/>
+      <c r="N43" s="142"/>
     </row>
     <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
+      <c r="A44" s="41">
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -4226,49 +4275,53 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="101" t="s">
+      <c r="J44" s="97" t="s">
         <v>288</v>
       </c>
-      <c r="K44" s="32"/>
+      <c r="K44" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L44" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="149" t="s">
+      <c r="M44" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="147"/>
+      <c r="N44" s="142"/>
     </row>
     <row r="45" spans="1:14" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="57">
+      <c r="A45" s="54">
         <v>42</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="59">
+      <c r="C45" s="56">
         <v>640001</v>
       </c>
-      <c r="D45" s="59">
+      <c r="D45" s="56">
         <v>103500041.0001</v>
       </c>
-      <c r="E45" s="59">
+      <c r="E45" s="56">
         <v>1126</v>
       </c>
-      <c r="F45" s="66"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="108" t="s">
+      <c r="F45" s="63"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="104" t="s">
         <v>288</v>
       </c>
-      <c r="K45" s="98"/>
-      <c r="L45" s="121" t="s">
+      <c r="K45" s="126" t="s">
+        <v>146</v>
+      </c>
+      <c r="L45" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="M45" s="155" t="s">
+      <c r="M45" s="150" t="s">
         <v>173</v>
       </c>
-      <c r="N45" s="150"/>
+      <c r="N45" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4293,9 +4346,9 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4316,121 +4369,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="190" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="177" t="s">
+      <c r="E2" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="179" t="s">
+      <c r="F2" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="179" t="s">
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="181"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="187"/>
     </row>
     <row r="3" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="110" t="s">
+      <c r="A3" s="191"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="110" t="s">
+      <c r="J3" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="140" t="s">
+      <c r="L3" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="144" t="s">
+      <c r="N3" s="139" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="35">
         <v>620023</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>3575010041</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
         <v>3417</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="105" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="94" t="s">
+      <c r="K4" s="170" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="156" t="s">
+      <c r="M4" s="151" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="151"/>
+      <c r="N4" s="146"/>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -4457,20 +4512,22 @@
       <c r="I5" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="149" t="s">
+      <c r="M5" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="N5" s="147"/>
+      <c r="N5" s="142"/>
     </row>
     <row r="6" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -4497,18 +4554,18 @@
       <c r="I6" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="96" t="s">
         <v>283</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="28"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="152"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="147"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="86">
+      <c r="A7" s="83">
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4524,85 +4581,89 @@
       <c r="F7" s="27"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="111" t="s">
+      <c r="I7" s="110"/>
+      <c r="J7" s="106" t="s">
         <v>283</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="117"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="184" t="s">
+      <c r="L7" s="112"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="160" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87">
+      <c r="A8" s="84">
         <v>5</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="47">
         <v>620004</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="47">
         <v>3575010027</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="112" t="s">
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="118"/>
-      <c r="M8" s="183"/>
-      <c r="N8" s="185"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="175" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="33">
         <v>6</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="35">
         <v>620033</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="35">
         <v>3572040004</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="35">
         <v>1057</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="105" t="s">
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="94" t="s">
+      <c r="K9" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="156" t="s">
+      <c r="M9" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="N9" s="151"/>
+      <c r="N9" s="146"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="A10" s="41">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -4621,18 +4682,18 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="96" t="s">
         <v>284</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="28"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="152"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="147"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="42">
         <v>8</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -4648,79 +4709,83 @@
       <c r="F11" s="19"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="111" t="s">
+      <c r="I11" s="112"/>
+      <c r="J11" s="106" t="s">
         <v>284</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="117"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="184" t="s">
+      <c r="L11" s="112"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="160" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
+      <c r="A12" s="43">
         <v>9</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="47">
         <v>620007</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="47">
         <v>3577070015</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="112" t="s">
+      <c r="E12" s="47"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="118"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="185"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="175" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="33">
         <v>10</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="37">
+      <c r="C13" s="37"/>
+      <c r="D13" s="35">
         <v>3593060014</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="35">
         <v>3545</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="105" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="94" t="s">
+      <c r="K13" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="156" t="s">
+      <c r="M13" s="151" t="s">
         <v>200</v>
       </c>
-      <c r="N13" s="151"/>
+      <c r="N13" s="146"/>
     </row>
     <row r="14" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="41">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -4737,20 +4802,22 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="100" t="s">
+      <c r="J14" s="96" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="K14" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="149" t="s">
+      <c r="M14" s="144" t="s">
         <v>201</v>
       </c>
-      <c r="N14" s="147"/>
+      <c r="N14" s="142"/>
     </row>
     <row r="15" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="41">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -4777,20 +4844,22 @@
       <c r="I15" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="100" t="s">
+      <c r="J15" s="96" t="s">
         <v>285</v>
       </c>
-      <c r="K15" s="32"/>
+      <c r="K15" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L15" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="149" t="s">
+      <c r="M15" s="144" t="s">
         <v>205</v>
       </c>
-      <c r="N15" s="147"/>
+      <c r="N15" s="142"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="41">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -4809,18 +4878,18 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="100" t="s">
+      <c r="J16" s="96" t="s">
         <v>285</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="28"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="152"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="147"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="42">
         <v>14</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -4836,81 +4905,85 @@
       <c r="F17" s="24"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="111" t="s">
+      <c r="I17" s="92"/>
+      <c r="J17" s="106" t="s">
         <v>285</v>
       </c>
       <c r="K17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="117"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="184" t="s">
+      <c r="L17" s="112"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="160" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
+      <c r="A18" s="43">
         <v>15</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="60">
         <v>620013</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="47">
         <v>3575010047</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="112" t="s">
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="107" t="s">
         <v>285</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="118"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="185"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="175" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="A19" s="33">
         <v>16</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="35">
         <v>750032</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="35">
         <v>3598100011</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="35">
         <v>1716</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="105" t="s">
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="94" t="s">
+      <c r="K19" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="156" t="s">
+      <c r="M19" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="N19" s="151"/>
+      <c r="N19" s="146"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
+      <c r="A20" s="41">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -4937,18 +5010,18 @@
       <c r="I20" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="J20" s="100" t="s">
+      <c r="J20" s="96" t="s">
         <v>286</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="28"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="152"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="147"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="A21" s="41">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -4975,18 +5048,18 @@
       <c r="I21" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="J21" s="100" t="s">
+      <c r="J21" s="96" t="s">
         <v>286</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="28"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="152"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="147"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
+      <c r="A22" s="42">
         <v>19</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -5002,85 +5075,89 @@
       <c r="F22" s="19"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="111" t="s">
+      <c r="I22" s="112"/>
+      <c r="J22" s="106" t="s">
         <v>286</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="117"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="184" t="s">
+      <c r="L22" s="112"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="160" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45">
+      <c r="A23" s="43">
         <v>20</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="47">
         <v>620015</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="47">
         <v>3577070053</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="112" t="s">
+      <c r="E23" s="47"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="118"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="185"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="175" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+      <c r="A24" s="33">
         <v>21</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="35">
         <v>750065</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="35">
         <v>3598080193</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="35">
         <v>637</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="105" t="s">
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="101" t="s">
         <v>287</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="94" t="s">
+      <c r="K24" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="M24" s="156" t="s">
+      <c r="M24" s="151" t="s">
         <v>202</v>
       </c>
-      <c r="N24" s="151"/>
+      <c r="N24" s="146"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
+      <c r="A25" s="41">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -5099,18 +5176,18 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="100" t="s">
+      <c r="J25" s="96" t="s">
         <v>287</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="28"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="152"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="147"/>
     </row>
     <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+      <c r="A26" s="41">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -5127,20 +5204,22 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="100" t="s">
+      <c r="J26" s="96" t="s">
         <v>287</v>
       </c>
-      <c r="K26" s="32"/>
+      <c r="K26" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L26" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="149" t="s">
+      <c r="M26" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="N26" s="147"/>
+      <c r="N26" s="142"/>
     </row>
     <row r="27" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="A27" s="41">
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -5167,20 +5246,22 @@
       <c r="I27" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="J27" s="100" t="s">
+      <c r="J27" s="96" t="s">
         <v>287</v>
       </c>
-      <c r="K27" s="32"/>
+      <c r="K27" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L27" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="M27" s="149" t="s">
+      <c r="M27" s="144" t="s">
         <v>202</v>
       </c>
-      <c r="N27" s="147"/>
+      <c r="N27" s="142"/>
     </row>
     <row r="28" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
+      <c r="A28" s="42">
         <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -5204,91 +5285,95 @@
       <c r="H28" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I28" s="117" t="s">
+      <c r="I28" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="J28" s="111" t="s">
+      <c r="J28" s="106" t="s">
         <v>287</v>
       </c>
-      <c r="K28" s="119" t="s">
+      <c r="K28" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="117"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="184" t="s">
+      <c r="L28" s="112"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="160" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45">
+      <c r="A29" s="43">
         <v>26</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="47">
         <v>620022</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="47">
         <v>3577070029</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="47">
         <v>4375</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="49" t="s">
+      <c r="G29" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="I29" s="118" t="s">
+      <c r="I29" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="J29" s="112" t="s">
+      <c r="J29" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="K29" s="120" t="s">
+      <c r="K29" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="118"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="185"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="175" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="A30" s="33">
         <v>27</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="37">
+      <c r="C30" s="37"/>
+      <c r="D30" s="35">
         <v>3598080214</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="35">
         <v>592</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="105" t="s">
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="K30" s="41"/>
-      <c r="L30" s="94" t="s">
+      <c r="K30" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="156" t="s">
+      <c r="M30" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="N30" s="151"/>
+      <c r="N30" s="146"/>
     </row>
     <row r="31" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="41">
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -5305,20 +5390,22 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="100" t="s">
+      <c r="J31" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="K31" s="32"/>
+      <c r="K31" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L31" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="149" t="s">
+      <c r="M31" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="N31" s="147"/>
+      <c r="N31" s="142"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
+      <c r="A32" s="41">
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -5335,20 +5422,22 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="100" t="s">
+      <c r="J32" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="K32" s="32"/>
+      <c r="K32" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L32" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="149" t="s">
+      <c r="M32" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="147"/>
+      <c r="N32" s="142"/>
     </row>
     <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
+      <c r="A33" s="41">
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -5365,20 +5454,22 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="100" t="s">
+      <c r="J33" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="K33" s="32"/>
+      <c r="K33" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L33" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="M33" s="149" t="s">
+      <c r="M33" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="N33" s="147"/>
+      <c r="N33" s="142"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
+      <c r="A34" s="41">
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -5397,20 +5488,22 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="100" t="s">
+      <c r="J34" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="K34" s="32"/>
+      <c r="K34" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L34" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M34" s="149" t="s">
+      <c r="M34" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N34" s="147"/>
+      <c r="N34" s="142"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="41">
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -5427,20 +5520,22 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="100" t="s">
+      <c r="J35" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="K35" s="32"/>
+      <c r="K35" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L35" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M35" s="149" t="s">
+      <c r="M35" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N35" s="147"/>
+      <c r="N35" s="142"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="44">
+      <c r="A36" s="42">
         <v>33</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -5456,59 +5551,61 @@
       <c r="F36" s="19"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="111" t="s">
+      <c r="I36" s="112"/>
+      <c r="J36" s="106" t="s">
         <v>288</v>
       </c>
-      <c r="K36" s="119" t="s">
+      <c r="K36" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="117"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="184" t="s">
+      <c r="L36" s="112"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="160" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45">
+      <c r="A37" s="43">
         <v>34</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="47">
         <v>620032</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="47">
         <v>3592040035</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37" s="47">
         <v>1750</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="G37" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" s="49" t="s">
+      <c r="G37" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="I37" s="118" t="s">
+      <c r="I37" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="J37" s="112" t="s">
+      <c r="J37" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="K37" s="120" t="s">
+      <c r="K37" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="118"/>
-      <c r="M37" s="183"/>
-      <c r="N37" s="185"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="189"/>
+      <c r="N37" s="175" t="s">
+        <v>291</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="14">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:B3"/>
@@ -5521,14 +5618,8 @@
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N11:N12"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N36:N37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5542,9 +5633,9 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5556,450 +5647,460 @@
     <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="177" t="s">
+      <c r="E2" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="179" t="s">
+      <c r="F2" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="179" t="s">
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="181"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="187"/>
     </row>
     <row r="3" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="110" t="s">
+      <c r="A3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="110" t="s">
+      <c r="J3" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="140" t="s">
+      <c r="L3" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="144" t="s">
+      <c r="N3" s="139" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+    <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="35">
         <v>40001</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>11122210002</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="126" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="121" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="151"/>
-    </row>
-    <row r="5" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57">
+      <c r="L4" s="91"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="146" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54">
         <v>2</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="56">
         <v>290015</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="56">
         <v>321</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="127" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="122" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="121"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="150"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="145" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="35">
         <v>230012</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="35">
         <v>801010010.00039995</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="35">
         <v>462</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="42" t="s">
+      <c r="G6" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="126" t="s">
+      <c r="J6" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="94"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="151"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="146"/>
     </row>
     <row r="7" spans="1:14" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57">
+      <c r="A7" s="54">
         <v>4</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="56">
         <v>200016</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="56">
         <v>11202170013</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="56">
         <v>607</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="61" t="s">
+      <c r="G7" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="122" t="s">
         <v>284</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="121"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="150"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="145" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77">
+      <c r="A8" s="74">
         <v>5</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="76">
         <v>260029</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="76">
         <v>801010011.00010002</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="76">
         <v>376</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="129" t="s">
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="124" t="s">
         <v>285</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="123"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="158"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="153"/>
     </row>
     <row r="9" spans="1:14" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77">
+      <c r="A9" s="74">
         <v>6</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="76">
         <v>240023</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="76">
         <v>801010007.00010002</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="76">
         <v>726</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="82" t="s">
+      <c r="G9" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="129" t="s">
+      <c r="J9" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="123"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="158"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="153"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="33">
         <v>7</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="35">
         <v>180070</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="35">
         <v>801010009.00020003</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="35">
         <v>693</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="42" t="s">
+      <c r="G10" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="J10" s="126" t="s">
+      <c r="J10" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="154"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="149"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57">
+      <c r="A11" s="54">
         <v>8</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="56">
         <v>260030</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="56">
         <v>801010010.00010002</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="56">
         <v>512</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="61" t="s">
+      <c r="G11" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="121" t="s">
+      <c r="I11" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="127" t="s">
+      <c r="J11" s="122" t="s">
         <v>287</v>
       </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="121" t="s">
+      <c r="K11" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="155" t="s">
+      <c r="M11" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="N11" s="150"/>
+      <c r="N11" s="145"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="33">
         <v>9</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="35">
         <v>230014</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="35">
         <v>801010010.00049996</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="35">
         <v>365</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="42" t="s">
+      <c r="G12" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="94" t="s">
+      <c r="I12" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="J12" s="126" t="s">
+      <c r="J12" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="154"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="149"/>
     </row>
     <row r="13" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57">
+      <c r="A13" s="54">
         <v>10</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="56">
         <v>260031</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="56">
         <v>801010010.00020003</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="56">
         <v>433</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="61" t="s">
+      <c r="G13" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="121" t="s">
+      <c r="I13" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="127" t="s">
+      <c r="J13" s="122" t="s">
         <v>288</v>
       </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="121" t="s">
+      <c r="K13" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="155" t="s">
+      <c r="M13" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="N13" s="150"/>
+      <c r="N13" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6024,9 +6125,9 @@
   </sheetPr>
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6043,123 +6144,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="177" t="s">
+      <c r="E2" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="179" t="s">
+      <c r="F2" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="179" t="s">
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="181"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="187"/>
     </row>
     <row r="3" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="110" t="s">
+      <c r="A3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="110" t="s">
+      <c r="J3" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="140" t="s">
+      <c r="L3" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="144" t="s">
+      <c r="N3" s="139" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="35">
         <v>410903</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>3232070011</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
         <v>324</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="105" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="151"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="L4" s="91"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="146"/>
+    </row>
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6177,19 +6278,21 @@
       <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="100" t="s">
+      <c r="I5" s="125"/>
+      <c r="J5" s="96" t="s">
         <v>283</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="28"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="152"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="M5" s="148"/>
+      <c r="N5" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6207,19 +6310,21 @@
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="100" t="s">
+      <c r="I6" s="125"/>
+      <c r="J6" s="96" t="s">
         <v>283</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="29"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="147"/>
-    </row>
-    <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="M6" s="144"/>
+      <c r="N6" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -6236,20 +6341,24 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="100" t="s">
+      <c r="J7" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L7" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="149" t="s">
+      <c r="M7" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="147"/>
-    </row>
-    <row r="8" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="N7" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -6267,21 +6376,25 @@
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="100" t="s">
+      <c r="I8" s="125"/>
+      <c r="J8" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="149" t="s">
+      <c r="M8" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N8" s="147"/>
-    </row>
-    <row r="9" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="N8" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6300,20 +6413,24 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="29"/>
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K9" s="32"/>
+      <c r="K9" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L9" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="M9" s="149" t="s">
+      <c r="M9" s="144" t="s">
         <v>240</v>
       </c>
-      <c r="N9" s="147"/>
-    </row>
-    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="N9" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6331,21 +6448,25 @@
       <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="100" t="s">
+      <c r="I10" s="125"/>
+      <c r="J10" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="149" t="s">
+      <c r="M10" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N10" s="147"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="N10" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6363,21 +6484,25 @@
       <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="100" t="s">
+      <c r="I11" s="125"/>
+      <c r="J11" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K11" s="32"/>
+      <c r="K11" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="149" t="s">
+      <c r="M11" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="147"/>
+      <c r="N11" s="177" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="41">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6395,21 +6520,25 @@
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="100" t="s">
+      <c r="I12" s="125"/>
+      <c r="J12" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L12" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="149" t="s">
+      <c r="M12" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="N12" s="147"/>
+      <c r="N12" s="177" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="41">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6427,21 +6556,25 @@
       <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="100" t="s">
+      <c r="I13" s="125"/>
+      <c r="J13" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K13" s="32"/>
+      <c r="K13" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L13" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="M13" s="149" t="s">
+      <c r="M13" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="N13" s="147"/>
-    </row>
-    <row r="14" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="N13" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -6465,21 +6598,23 @@
       <c r="H14" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I14" s="130" t="s">
+      <c r="I14" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J14" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="169" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="29"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="147"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="M14" s="144"/>
+      <c r="N14" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -6497,19 +6632,21 @@
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="100" t="s">
+      <c r="I15" s="125"/>
+      <c r="J15" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="169" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="147"/>
-    </row>
-    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="M15" s="144"/>
+      <c r="N15" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -6536,18 +6673,20 @@
       <c r="I16" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="J16" s="100" t="s">
+      <c r="J16" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="169" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="29"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="147"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="177" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="41">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -6565,21 +6704,25 @@
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="100" t="s">
+      <c r="I17" s="125"/>
+      <c r="J17" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K17" s="32"/>
+      <c r="K17" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L17" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="149" t="s">
+      <c r="M17" s="144" t="s">
         <v>236</v>
       </c>
-      <c r="N17" s="147"/>
-    </row>
-    <row r="18" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="N17" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -6597,21 +6740,25 @@
       <c r="F18" s="3"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="100" t="s">
+      <c r="I18" s="125"/>
+      <c r="J18" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K18" s="32"/>
+      <c r="K18" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L18" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="M18" s="149" t="s">
+      <c r="M18" s="144" t="s">
         <v>240</v>
       </c>
-      <c r="N18" s="147"/>
-    </row>
-    <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="N18" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -6629,21 +6776,25 @@
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="100" t="s">
+      <c r="I19" s="125"/>
+      <c r="J19" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K19" s="32"/>
+      <c r="K19" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L19" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="M19" s="149" t="s">
+      <c r="M19" s="144" t="s">
         <v>240</v>
       </c>
-      <c r="N19" s="147"/>
+      <c r="N19" s="177" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="85">
+      <c r="A20" s="82">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -6661,21 +6812,25 @@
       <c r="F20" s="3"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="100" t="s">
+      <c r="I20" s="125"/>
+      <c r="J20" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K20" s="33"/>
+      <c r="K20" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L20" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="M20" s="149" t="s">
+      <c r="M20" s="144" t="s">
         <v>235</v>
       </c>
-      <c r="N20" s="147"/>
-    </row>
-    <row r="21" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="85">
+      <c r="N20" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="82">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -6694,92 +6849,102 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="100" t="s">
+      <c r="J21" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="K21" s="33"/>
+      <c r="K21" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L21" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="149" t="s">
+      <c r="M21" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N21" s="147"/>
-    </row>
-    <row r="22" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57">
+      <c r="N21" s="177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="54">
         <v>19</v>
       </c>
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="135">
+      <c r="C22" s="130">
         <v>861002</v>
       </c>
-      <c r="D22" s="135">
+      <c r="D22" s="130">
         <v>3505160089</v>
       </c>
-      <c r="E22" s="135">
+      <c r="E22" s="130">
         <v>422</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="106" t="s">
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="K22" s="131"/>
-      <c r="L22" s="121" t="s">
+      <c r="K22" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="155" t="s">
+      <c r="M22" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="N22" s="150"/>
+      <c r="N22" s="177" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+      <c r="A23" s="33">
         <v>18</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="35">
         <v>381503</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="35">
         <v>3234010115</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="35">
         <v>543</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="42" t="s">
+      <c r="G23" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="I23" s="94" t="s">
+      <c r="I23" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="J23" s="136" t="s">
+      <c r="J23" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="94" t="s">
+      <c r="K23" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="M23" s="156" t="s">
+      <c r="M23" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="151"/>
+      <c r="N23" s="146"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
+      <c r="A24" s="41">
         <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6798,20 +6963,22 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="99" t="s">
+      <c r="J24" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K24" s="32"/>
+      <c r="K24" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="149" t="s">
+      <c r="M24" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="147"/>
+      <c r="N24" s="142"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
+      <c r="A25" s="41">
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -6830,20 +6997,22 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="99" t="s">
+      <c r="J25" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K25" s="32"/>
+      <c r="K25" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="149" t="s">
+      <c r="M25" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="147"/>
+      <c r="N25" s="142"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+      <c r="A26" s="41">
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -6862,20 +7031,22 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="99" t="s">
+      <c r="J26" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K26" s="32"/>
+      <c r="K26" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L26" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M26" s="149" t="s">
+      <c r="M26" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="147"/>
+      <c r="N26" s="142"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="A27" s="41">
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -6894,20 +7065,22 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="99" t="s">
+      <c r="J27" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K27" s="32"/>
+      <c r="K27" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="149" t="s">
+      <c r="M27" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="147"/>
+      <c r="N27" s="142"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="A28" s="41">
         <v>23</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -6926,20 +7099,22 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="99" t="s">
+      <c r="J28" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K28" s="32"/>
+      <c r="K28" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="149" t="s">
+      <c r="M28" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="147"/>
+      <c r="N28" s="142"/>
     </row>
     <row r="29" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+      <c r="A29" s="41">
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -6958,20 +7133,22 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="99" t="s">
+      <c r="J29" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K29" s="32"/>
+      <c r="K29" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L29" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="149" t="s">
+      <c r="M29" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N29" s="147"/>
+      <c r="N29" s="142"/>
     </row>
     <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
+      <c r="A30" s="41">
         <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6998,20 +7175,22 @@
       <c r="I30" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J30" s="99" t="s">
+      <c r="J30" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K30" s="32"/>
+      <c r="K30" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L30" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M30" s="149" t="s">
+      <c r="M30" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="147"/>
+      <c r="N30" s="142"/>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="41">
         <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -7038,20 +7217,22 @@
       <c r="I31" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="J31" s="99" t="s">
+      <c r="J31" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K31" s="32"/>
+      <c r="K31" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L31" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M31" s="149" t="s">
+      <c r="M31" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N31" s="147"/>
+      <c r="N31" s="142"/>
     </row>
     <row r="32" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
+      <c r="A32" s="41">
         <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -7078,20 +7259,22 @@
       <c r="I32" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="J32" s="99" t="s">
+      <c r="J32" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K32" s="32"/>
+      <c r="K32" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L32" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M32" s="149" t="s">
+      <c r="M32" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N32" s="147"/>
+      <c r="N32" s="142"/>
     </row>
     <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
+      <c r="A33" s="41">
         <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -7110,20 +7293,22 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="99" t="s">
+      <c r="J33" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K33" s="32"/>
+      <c r="K33" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L33" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="149" t="s">
+      <c r="M33" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="N33" s="147"/>
+      <c r="N33" s="142"/>
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
+      <c r="A34" s="41">
         <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -7142,20 +7327,22 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="99" t="s">
+      <c r="J34" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K34" s="32"/>
+      <c r="K34" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L34" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M34" s="149" t="s">
+      <c r="M34" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N34" s="147"/>
+      <c r="N34" s="142"/>
     </row>
     <row r="35" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="41">
         <v>30</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -7182,20 +7369,22 @@
       <c r="I35" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J35" s="99" t="s">
+      <c r="J35" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K35" s="32"/>
+      <c r="K35" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L35" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="149" t="s">
+      <c r="M35" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="N35" s="147"/>
+      <c r="N35" s="142"/>
     </row>
     <row r="36" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
+      <c r="A36" s="41">
         <v>31</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -7222,20 +7411,22 @@
       <c r="I36" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="J36" s="99" t="s">
+      <c r="J36" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K36" s="32"/>
+      <c r="K36" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L36" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="149" t="s">
+      <c r="M36" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N36" s="147"/>
+      <c r="N36" s="142"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="43">
+      <c r="A37" s="41">
         <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -7262,20 +7453,22 @@
       <c r="I37" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J37" s="99" t="s">
+      <c r="J37" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K37" s="32"/>
+      <c r="K37" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L37" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M37" s="149" t="s">
+      <c r="M37" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="147"/>
+      <c r="N37" s="142"/>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
+      <c r="A38" s="41">
         <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -7294,20 +7487,22 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="99" t="s">
+      <c r="J38" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K38" s="32"/>
+      <c r="K38" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L38" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M38" s="149" t="s">
+      <c r="M38" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="N38" s="147"/>
+      <c r="N38" s="142"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
+      <c r="A39" s="41">
         <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -7326,20 +7521,22 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="99" t="s">
+      <c r="J39" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K39" s="32"/>
+      <c r="K39" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L39" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="149" t="s">
+      <c r="M39" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="N39" s="147"/>
+      <c r="N39" s="142"/>
     </row>
     <row r="40" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
+      <c r="A40" s="41">
         <v>35</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -7366,20 +7563,22 @@
       <c r="I40" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J40" s="99" t="s">
+      <c r="J40" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K40" s="32"/>
+      <c r="K40" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L40" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M40" s="149" t="s">
+      <c r="M40" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="147"/>
+      <c r="N40" s="142"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
+      <c r="A41" s="41">
         <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -7406,20 +7605,22 @@
       <c r="I41" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J41" s="99" t="s">
+      <c r="J41" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K41" s="32"/>
+      <c r="K41" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L41" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="149" t="s">
+      <c r="M41" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="147"/>
+      <c r="N41" s="142"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
+      <c r="A42" s="41">
         <v>37</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -7438,20 +7639,22 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="99" t="s">
+      <c r="J42" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K42" s="32"/>
+      <c r="K42" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M42" s="149" t="s">
+      <c r="M42" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="N42" s="147"/>
+      <c r="N42" s="142"/>
     </row>
     <row r="43" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
+      <c r="A43" s="41">
         <v>38</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -7478,92 +7681,98 @@
       <c r="I43" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J43" s="99" t="s">
+      <c r="J43" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="K43" s="32"/>
+      <c r="K43" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L43" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M43" s="149" t="s">
+      <c r="M43" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="147"/>
+      <c r="N43" s="142"/>
     </row>
     <row r="44" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="57">
+      <c r="A44" s="54">
         <v>39</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="59">
+      <c r="C44" s="56">
         <v>421704</v>
       </c>
-      <c r="D44" s="59">
+      <c r="D44" s="56">
         <v>3234150010</v>
       </c>
-      <c r="E44" s="59">
+      <c r="E44" s="56">
         <v>1030</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="F44" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="G44" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="61" t="s">
+      <c r="G44" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="121" t="s">
+      <c r="I44" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="J44" s="137" t="s">
+      <c r="J44" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="K44" s="98"/>
-      <c r="L44" s="121" t="s">
+      <c r="K44" s="126" t="s">
+        <v>146</v>
+      </c>
+      <c r="L44" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="M44" s="155" t="s">
+      <c r="M44" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="N44" s="150"/>
+      <c r="N44" s="145"/>
     </row>
     <row r="45" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="35">
+      <c r="A45" s="33">
         <v>40</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="35">
         <v>60202</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="35">
         <v>3234140044</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="35">
         <v>2145</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="136" t="s">
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="K45" s="41"/>
-      <c r="L45" s="94" t="s">
+      <c r="K45" s="170" t="s">
+        <v>146</v>
+      </c>
+      <c r="L45" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="156" t="s">
+      <c r="M45" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="N45" s="151"/>
+      <c r="N45" s="146"/>
     </row>
     <row r="46" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A46" s="43">
+      <c r="A46" s="41">
         <v>41</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -7590,20 +7799,22 @@
       <c r="I46" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="J46" s="99" t="s">
+      <c r="J46" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K46" s="32"/>
+      <c r="K46" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L46" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M46" s="149" t="s">
+      <c r="M46" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N46" s="147"/>
+      <c r="N46" s="142"/>
     </row>
     <row r="47" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="43">
+      <c r="A47" s="41">
         <v>42</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -7630,20 +7841,22 @@
       <c r="I47" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="J47" s="99" t="s">
+      <c r="J47" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K47" s="32"/>
+      <c r="K47" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L47" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M47" s="149" t="s">
+      <c r="M47" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N47" s="147"/>
+      <c r="N47" s="142"/>
     </row>
     <row r="48" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="43">
+      <c r="A48" s="41">
         <v>43</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -7670,20 +7883,22 @@
       <c r="I48" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J48" s="99" t="s">
+      <c r="J48" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K48" s="32"/>
+      <c r="K48" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L48" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M48" s="149" t="s">
+      <c r="M48" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N48" s="147"/>
+      <c r="N48" s="142"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="43">
+      <c r="A49" s="41">
         <v>44</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -7702,20 +7917,22 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="99" t="s">
+      <c r="J49" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K49" s="32"/>
+      <c r="K49" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L49" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="149" t="s">
+      <c r="M49" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N49" s="147"/>
+      <c r="N49" s="142"/>
     </row>
     <row r="50" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
+      <c r="A50" s="41">
         <v>45</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -7742,20 +7959,22 @@
       <c r="I50" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="J50" s="99" t="s">
+      <c r="J50" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K50" s="32"/>
+      <c r="K50" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L50" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M50" s="149" t="s">
+      <c r="M50" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N50" s="147"/>
+      <c r="N50" s="142"/>
     </row>
     <row r="51" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
+      <c r="A51" s="41">
         <v>46</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7782,20 +8001,22 @@
       <c r="I51" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="J51" s="99" t="s">
+      <c r="J51" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K51" s="32"/>
+      <c r="K51" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L51" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M51" s="149" t="s">
+      <c r="M51" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N51" s="147"/>
+      <c r="N51" s="142"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
+      <c r="A52" s="41">
         <v>47</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -7814,20 +8035,22 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="99" t="s">
+      <c r="J52" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K52" s="32"/>
+      <c r="K52" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L52" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M52" s="149" t="s">
+      <c r="M52" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N52" s="147"/>
+      <c r="N52" s="142"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="43">
+      <c r="A53" s="41">
         <v>48</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -7846,18 +8069,18 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="99" t="s">
+      <c r="J53" s="95" t="s">
         <v>285</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L53" s="28"/>
-      <c r="M53" s="153"/>
-      <c r="N53" s="152"/>
+      <c r="M53" s="148"/>
+      <c r="N53" s="147"/>
     </row>
     <row r="54" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
+      <c r="A54" s="41">
         <v>49</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -7880,20 +8103,22 @@
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="99" t="s">
+      <c r="J54" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K54" s="32"/>
+      <c r="K54" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L54" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="M54" s="149" t="s">
+      <c r="M54" s="144" t="s">
         <v>234</v>
       </c>
-      <c r="N54" s="147"/>
+      <c r="N54" s="142"/>
     </row>
     <row r="55" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
+      <c r="A55" s="41">
         <v>50</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -7912,26 +8137,28 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="99" t="s">
+      <c r="J55" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K55" s="32"/>
+      <c r="K55" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L55" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="M55" s="149" t="s">
+      <c r="M55" s="144" t="s">
         <v>236</v>
       </c>
-      <c r="N55" s="147"/>
+      <c r="N55" s="142"/>
     </row>
     <row r="56" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
+      <c r="A56" s="41">
         <v>51</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="93">
+      <c r="C56" s="90">
         <v>700103</v>
       </c>
       <c r="D56" s="9">
@@ -7944,20 +8171,22 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="99" t="s">
+      <c r="J56" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K56" s="32"/>
+      <c r="K56" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L56" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="M56" s="149" t="s">
+      <c r="M56" s="144" t="s">
         <v>237</v>
       </c>
-      <c r="N56" s="147"/>
+      <c r="N56" s="142"/>
     </row>
     <row r="57" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
+      <c r="A57" s="41">
         <v>52</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -7980,20 +8209,22 @@
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="28"/>
-      <c r="J57" s="99" t="s">
+      <c r="J57" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K57" s="32"/>
+      <c r="K57" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L57" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="M57" s="149" t="s">
+      <c r="M57" s="144" t="s">
         <v>235</v>
       </c>
-      <c r="N57" s="147"/>
+      <c r="N57" s="142"/>
     </row>
     <row r="58" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
+      <c r="A58" s="41">
         <v>53</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -8016,20 +8247,22 @@
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="28"/>
-      <c r="J58" s="99" t="s">
+      <c r="J58" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K58" s="32"/>
+      <c r="K58" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L58" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="M58" s="149" t="s">
+      <c r="M58" s="144" t="s">
         <v>235</v>
       </c>
-      <c r="N58" s="147"/>
+      <c r="N58" s="142"/>
     </row>
     <row r="59" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
+      <c r="A59" s="41">
         <v>54</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -8056,20 +8289,22 @@
       <c r="I59" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="J59" s="99" t="s">
+      <c r="J59" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="K59" s="32"/>
+      <c r="K59" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L59" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="M59" s="149" t="s">
+      <c r="M59" s="144" t="s">
         <v>240</v>
       </c>
-      <c r="N59" s="147"/>
+      <c r="N59" s="142"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="44">
+      <c r="A60" s="42">
         <v>55</v>
       </c>
       <c r="B60" s="22" t="s">
@@ -8085,81 +8320,85 @@
       <c r="F60" s="19"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="133" t="s">
+      <c r="I60" s="112"/>
+      <c r="J60" s="128" t="s">
         <v>285</v>
       </c>
-      <c r="K60" s="119" t="s">
+      <c r="K60" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="L60" s="117"/>
-      <c r="M60" s="188"/>
-      <c r="N60" s="190" t="s">
+      <c r="L60" s="112"/>
+      <c r="M60" s="192"/>
+      <c r="N60" s="164" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45">
+      <c r="A61" s="43">
         <v>56</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="50">
-        <v>700205</v>
-      </c>
-      <c r="D61" s="50">
+      <c r="C61" s="47">
+        <v>700309</v>
+      </c>
+      <c r="D61" s="47">
         <v>3543190004</v>
       </c>
-      <c r="E61" s="50"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="138" t="s">
+      <c r="E61" s="47"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="K61" s="120" t="s">
+      <c r="K61" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="L61" s="118"/>
-      <c r="M61" s="189"/>
-      <c r="N61" s="191"/>
+      <c r="L61" s="113"/>
+      <c r="M61" s="193"/>
+      <c r="N61" s="166" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
+      <c r="A62" s="33">
         <v>57</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="37">
+      <c r="C62" s="35">
         <v>611403</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D62" s="35">
         <v>3238080012</v>
       </c>
-      <c r="E62" s="37">
+      <c r="E62" s="35">
         <v>1359</v>
       </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="126" t="s">
+      <c r="F62" s="36"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="121" t="s">
         <v>286</v>
       </c>
-      <c r="K62" s="41"/>
-      <c r="L62" s="94" t="s">
+      <c r="K62" s="170" t="s">
+        <v>146</v>
+      </c>
+      <c r="L62" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="M62" s="156" t="s">
+      <c r="M62" s="151" t="s">
         <v>241</v>
       </c>
-      <c r="N62" s="151"/>
+      <c r="N62" s="146"/>
     </row>
     <row r="63" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="43">
+      <c r="A63" s="41">
         <v>58</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -8186,20 +8425,22 @@
       <c r="I63" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J63" s="124" t="s">
+      <c r="J63" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K63" s="32"/>
+      <c r="K63" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L63" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="M63" s="149" t="s">
+      <c r="M63" s="144" t="s">
         <v>242</v>
       </c>
-      <c r="N63" s="147"/>
+      <c r="N63" s="142"/>
     </row>
     <row r="64" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="43">
+      <c r="A64" s="41">
         <v>59</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -8226,20 +8467,22 @@
       <c r="I64" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J64" s="124" t="s">
+      <c r="J64" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K64" s="32"/>
+      <c r="K64" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L64" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M64" s="149" t="s">
+      <c r="M64" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N64" s="147"/>
+      <c r="N64" s="142"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="43">
+      <c r="A65" s="41">
         <v>60</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -8258,20 +8501,22 @@
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="28"/>
-      <c r="J65" s="124" t="s">
+      <c r="J65" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K65" s="32"/>
+      <c r="K65" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L65" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M65" s="149" t="s">
+      <c r="M65" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N65" s="147"/>
+      <c r="N65" s="142"/>
     </row>
     <row r="66" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="43">
+      <c r="A66" s="41">
         <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -8298,20 +8543,22 @@
       <c r="I66" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J66" s="124" t="s">
+      <c r="J66" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K66" s="32"/>
+      <c r="K66" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L66" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M66" s="149" t="s">
+      <c r="M66" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N66" s="147"/>
+      <c r="N66" s="142"/>
     </row>
     <row r="67" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="43">
+      <c r="A67" s="41">
         <v>62</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -8338,20 +8585,22 @@
       <c r="I67" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J67" s="124" t="s">
+      <c r="J67" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K67" s="32"/>
+      <c r="K67" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L67" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M67" s="149" t="s">
+      <c r="M67" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N67" s="147"/>
+      <c r="N67" s="142"/>
     </row>
     <row r="68" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="43">
+      <c r="A68" s="41">
         <v>63</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -8378,20 +8627,22 @@
       <c r="I68" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J68" s="124" t="s">
+      <c r="J68" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K68" s="32"/>
+      <c r="K68" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L68" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M68" s="149" t="s">
+      <c r="M68" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N68" s="147"/>
+      <c r="N68" s="142"/>
     </row>
     <row r="69" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="43">
+      <c r="A69" s="41">
         <v>64</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -8418,20 +8669,22 @@
       <c r="I69" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="J69" s="124" t="s">
+      <c r="J69" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K69" s="32"/>
+      <c r="K69" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L69" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M69" s="149" t="s">
+      <c r="M69" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N69" s="147"/>
+      <c r="N69" s="142"/>
     </row>
     <row r="70" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A70" s="43">
+      <c r="A70" s="41">
         <v>65</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -8450,20 +8703,22 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="28"/>
-      <c r="J70" s="124" t="s">
+      <c r="J70" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K70" s="32"/>
+      <c r="K70" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L70" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="M70" s="149" t="s">
+      <c r="M70" s="144" t="s">
         <v>243</v>
       </c>
-      <c r="N70" s="147"/>
+      <c r="N70" s="142"/>
     </row>
     <row r="71" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="43">
+      <c r="A71" s="41">
         <v>66</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -8482,20 +8737,22 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="28"/>
-      <c r="J71" s="124" t="s">
+      <c r="J71" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K71" s="32"/>
+      <c r="K71" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L71" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M71" s="149" t="s">
+      <c r="M71" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="N71" s="147"/>
+      <c r="N71" s="142"/>
     </row>
     <row r="72" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="43">
+      <c r="A72" s="41">
         <v>67</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -8514,20 +8771,22 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="28"/>
-      <c r="J72" s="124" t="s">
+      <c r="J72" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K72" s="32"/>
+      <c r="K72" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L72" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="M72" s="149" t="s">
+      <c r="M72" s="144" t="s">
         <v>244</v>
       </c>
-      <c r="N72" s="147"/>
+      <c r="N72" s="142"/>
     </row>
     <row r="73" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="43">
+      <c r="A73" s="41">
         <v>68</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -8546,20 +8805,22 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="28"/>
-      <c r="J73" s="124" t="s">
+      <c r="J73" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K73" s="32"/>
+      <c r="K73" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L73" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="M73" s="149" t="s">
+      <c r="M73" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="N73" s="147"/>
+      <c r="N73" s="142"/>
     </row>
     <row r="74" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="43">
+      <c r="A74" s="41">
         <v>69</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -8586,20 +8847,22 @@
       <c r="I74" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="124" t="s">
+      <c r="J74" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K74" s="32"/>
+      <c r="K74" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L74" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="M74" s="149" t="s">
+      <c r="M74" s="144" t="s">
         <v>213</v>
       </c>
-      <c r="N74" s="147"/>
+      <c r="N74" s="142"/>
     </row>
     <row r="75" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="43">
+      <c r="A75" s="41">
         <v>70</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -8618,20 +8881,22 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="28"/>
-      <c r="J75" s="124" t="s">
+      <c r="J75" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K75" s="32"/>
+      <c r="K75" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L75" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="M75" s="149" t="s">
+      <c r="M75" s="144" t="s">
         <v>213</v>
       </c>
-      <c r="N75" s="147"/>
+      <c r="N75" s="142"/>
     </row>
     <row r="76" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="43">
+      <c r="A76" s="41">
         <v>71</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -8650,20 +8915,22 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="28"/>
-      <c r="J76" s="124" t="s">
+      <c r="J76" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K76" s="32"/>
+      <c r="K76" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L76" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="M76" s="149" t="s">
+      <c r="M76" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="N76" s="147"/>
+      <c r="N76" s="142"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="43">
+      <c r="A77" s="41">
         <v>72</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -8682,20 +8949,22 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="28"/>
-      <c r="J77" s="124" t="s">
+      <c r="J77" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K77" s="32"/>
+      <c r="K77" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L77" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M77" s="149" t="s">
+      <c r="M77" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N77" s="147"/>
+      <c r="N77" s="142"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="43">
+      <c r="A78" s="41">
         <v>73</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -8714,20 +8983,22 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="28"/>
-      <c r="J78" s="124" t="s">
+      <c r="J78" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K78" s="32"/>
+      <c r="K78" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L78" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M78" s="149" t="s">
+      <c r="M78" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N78" s="147"/>
+      <c r="N78" s="142"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="43">
+      <c r="A79" s="41">
         <v>74</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -8746,20 +9017,22 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="28"/>
-      <c r="J79" s="124" t="s">
+      <c r="J79" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K79" s="32"/>
+      <c r="K79" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L79" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M79" s="149" t="s">
+      <c r="M79" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N79" s="147"/>
+      <c r="N79" s="142"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="43">
+      <c r="A80" s="41">
         <v>75</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -8778,20 +9051,22 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="28"/>
-      <c r="J80" s="124" t="s">
+      <c r="J80" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K80" s="32"/>
+      <c r="K80" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L80" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M80" s="149" t="s">
+      <c r="M80" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N80" s="147"/>
+      <c r="N80" s="142"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="43">
+      <c r="A81" s="41">
         <v>76</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -8818,20 +9093,22 @@
       <c r="I81" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J81" s="124" t="s">
+      <c r="J81" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K81" s="32"/>
+      <c r="K81" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L81" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M81" s="149" t="s">
+      <c r="M81" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N81" s="147"/>
+      <c r="N81" s="142"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="43">
+      <c r="A82" s="41">
         <v>77</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -8850,20 +9127,22 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="28"/>
-      <c r="J82" s="124" t="s">
+      <c r="J82" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K82" s="32"/>
+      <c r="K82" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L82" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M82" s="149" t="s">
+      <c r="M82" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N82" s="147"/>
+      <c r="N82" s="142"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="43">
+      <c r="A83" s="41">
         <v>78</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -8882,20 +9161,22 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="28"/>
-      <c r="J83" s="124" t="s">
+      <c r="J83" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K83" s="32"/>
+      <c r="K83" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L83" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M83" s="149" t="s">
+      <c r="M83" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N83" s="147"/>
+      <c r="N83" s="142"/>
     </row>
     <row r="84" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="43">
+      <c r="A84" s="41">
         <v>79</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -8922,20 +9203,22 @@
       <c r="I84" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="J84" s="124" t="s">
+      <c r="J84" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="K84" s="32"/>
+      <c r="K84" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L84" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M84" s="149" t="s">
+      <c r="M84" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N84" s="147"/>
+      <c r="N84" s="142"/>
     </row>
     <row r="85" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="44">
+      <c r="A85" s="42">
         <v>80</v>
       </c>
       <c r="B85" s="22" t="s">
@@ -8951,23 +9234,25 @@
       <c r="F85" s="19"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
-      <c r="I85" s="117"/>
-      <c r="J85" s="132" t="s">
+      <c r="I85" s="112"/>
+      <c r="J85" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="K85" s="119"/>
-      <c r="L85" s="117" t="s">
+      <c r="K85" s="171" t="s">
+        <v>146</v>
+      </c>
+      <c r="L85" s="112" t="s">
         <v>43</v>
       </c>
       <c r="M85" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="N85" s="169" t="s">
+      <c r="N85" s="164" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="44">
+      <c r="A86" s="42">
         <v>81</v>
       </c>
       <c r="B86" s="17" t="s">
@@ -8985,89 +9270,95 @@
       <c r="F86" s="19"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="117"/>
-      <c r="J86" s="132" t="s">
+      <c r="I86" s="112"/>
+      <c r="J86" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="K86" s="119"/>
-      <c r="L86" s="117" t="s">
+      <c r="K86" s="171" t="s">
+        <v>146</v>
+      </c>
+      <c r="L86" s="112" t="s">
         <v>43</v>
       </c>
       <c r="M86" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="N86" s="170" t="s">
+      <c r="N86" s="165" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="45">
+      <c r="A87" s="43">
         <v>82</v>
       </c>
-      <c r="B87" s="49" t="s">
+      <c r="B87" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="50">
+      <c r="C87" s="47">
         <v>600306</v>
       </c>
-      <c r="D87" s="50">
+      <c r="D87" s="47">
         <v>3234130023</v>
       </c>
-      <c r="E87" s="50">
+      <c r="E87" s="47">
         <v>23</v>
       </c>
-      <c r="F87" s="53"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="118"/>
-      <c r="J87" s="139" t="s">
+      <c r="F87" s="50"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="113"/>
+      <c r="J87" s="134" t="s">
         <v>286</v>
       </c>
-      <c r="K87" s="120"/>
-      <c r="L87" s="161" t="s">
+      <c r="K87" s="172" t="s">
+        <v>146</v>
+      </c>
+      <c r="L87" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="M87" s="146" t="s">
+      <c r="M87" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="N87" s="171" t="s">
+      <c r="N87" s="166" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="35">
+      <c r="A88" s="33">
         <v>83</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="37">
+      <c r="C88" s="35">
         <v>120402</v>
       </c>
-      <c r="D88" s="37">
+      <c r="D88" s="35">
         <v>3506090098</v>
       </c>
-      <c r="E88" s="37">
+      <c r="E88" s="35">
         <v>1397</v>
       </c>
-      <c r="F88" s="38"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="126" t="s">
+      <c r="F88" s="36"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="K88" s="41"/>
-      <c r="L88" s="94" t="s">
+      <c r="K88" s="170" t="s">
+        <v>146</v>
+      </c>
+      <c r="L88" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="M88" s="156" t="s">
+      <c r="M88" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="N88" s="151"/>
+      <c r="N88" s="146"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="43">
+      <c r="A89" s="41">
         <v>84</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -9086,20 +9377,22 @@
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="28"/>
-      <c r="J89" s="124" t="s">
+      <c r="J89" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K89" s="32"/>
+      <c r="K89" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L89" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M89" s="149" t="s">
+      <c r="M89" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="147"/>
+      <c r="N89" s="142"/>
     </row>
     <row r="90" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="43">
+      <c r="A90" s="41">
         <v>85</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -9126,20 +9419,22 @@
       <c r="I90" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="J90" s="124" t="s">
+      <c r="J90" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K90" s="32"/>
+      <c r="K90" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L90" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="M90" s="149" t="s">
+      <c r="M90" s="144" t="s">
         <v>253</v>
       </c>
-      <c r="N90" s="147"/>
+      <c r="N90" s="142"/>
     </row>
     <row r="91" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="43">
+      <c r="A91" s="41">
         <v>86</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -9158,20 +9453,22 @@
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="28"/>
-      <c r="J91" s="124" t="s">
+      <c r="J91" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K91" s="32"/>
+      <c r="K91" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L91" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="149" t="s">
+      <c r="M91" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N91" s="147"/>
+      <c r="N91" s="142"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="43">
+      <c r="A92" s="41">
         <v>87</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -9190,20 +9487,22 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="28"/>
-      <c r="J92" s="124" t="s">
+      <c r="J92" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K92" s="32"/>
+      <c r="K92" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L92" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M92" s="149" t="s">
+      <c r="M92" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N92" s="147"/>
+      <c r="N92" s="142"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="43">
+      <c r="A93" s="41">
         <v>88</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -9230,20 +9529,22 @@
       <c r="I93" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J93" s="124" t="s">
+      <c r="J93" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K93" s="32"/>
+      <c r="K93" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L93" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M93" s="149" t="s">
+      <c r="M93" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N93" s="147"/>
+      <c r="N93" s="142"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="43">
+      <c r="A94" s="41">
         <v>89</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -9262,20 +9563,22 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="28"/>
-      <c r="J94" s="124" t="s">
+      <c r="J94" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K94" s="32"/>
+      <c r="K94" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L94" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M94" s="149" t="s">
+      <c r="M94" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N94" s="147"/>
+      <c r="N94" s="142"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="43">
+      <c r="A95" s="41">
         <v>90</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -9294,20 +9597,22 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="28"/>
-      <c r="J95" s="124" t="s">
+      <c r="J95" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K95" s="32"/>
+      <c r="K95" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L95" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M95" s="149" t="s">
+      <c r="M95" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N95" s="147"/>
+      <c r="N95" s="142"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="43">
+      <c r="A96" s="41">
         <v>91</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -9326,20 +9631,22 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="28"/>
-      <c r="J96" s="124" t="s">
+      <c r="J96" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K96" s="32"/>
+      <c r="K96" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L96" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M96" s="149" t="s">
+      <c r="M96" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="N96" s="147"/>
+      <c r="N96" s="142"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="43">
+      <c r="A97" s="41">
         <v>92</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -9358,20 +9665,22 @@
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="28"/>
-      <c r="J97" s="124" t="s">
+      <c r="J97" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K97" s="32"/>
+      <c r="K97" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L97" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M97" s="149" t="s">
+      <c r="M97" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N97" s="147"/>
+      <c r="N97" s="142"/>
     </row>
     <row r="98" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="43">
+      <c r="A98" s="41">
         <v>93</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -9398,20 +9707,22 @@
       <c r="I98" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="J98" s="124" t="s">
+      <c r="J98" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K98" s="32"/>
+      <c r="K98" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L98" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="M98" s="149" t="s">
+      <c r="M98" s="144" t="s">
         <v>254</v>
       </c>
-      <c r="N98" s="147"/>
+      <c r="N98" s="142"/>
     </row>
     <row r="99" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="43">
+      <c r="A99" s="41">
         <v>94</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -9438,20 +9749,22 @@
       <c r="I99" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="J99" s="124" t="s">
+      <c r="J99" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K99" s="32"/>
+      <c r="K99" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L99" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M99" s="149" t="s">
+      <c r="M99" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N99" s="147"/>
+      <c r="N99" s="142"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="43">
+      <c r="A100" s="41">
         <v>95</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -9478,20 +9791,22 @@
       <c r="I100" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J100" s="124" t="s">
+      <c r="J100" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K100" s="32"/>
+      <c r="K100" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L100" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M100" s="149" t="s">
+      <c r="M100" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N100" s="147"/>
+      <c r="N100" s="142"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="43">
+      <c r="A101" s="41">
         <v>96</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -9510,20 +9825,22 @@
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="28"/>
-      <c r="J101" s="124" t="s">
+      <c r="J101" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K101" s="32"/>
+      <c r="K101" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L101" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M101" s="149" t="s">
+      <c r="M101" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N101" s="147"/>
+      <c r="N101" s="142"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="43">
+      <c r="A102" s="41">
         <v>97</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -9542,20 +9859,22 @@
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="28"/>
-      <c r="J102" s="124" t="s">
+      <c r="J102" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K102" s="32"/>
+      <c r="K102" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L102" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M102" s="149" t="s">
+      <c r="M102" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N102" s="147"/>
+      <c r="N102" s="142"/>
     </row>
     <row r="103" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A103" s="43">
+      <c r="A103" s="41">
         <v>98</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -9574,20 +9893,22 @@
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="28"/>
-      <c r="J103" s="124" t="s">
+      <c r="J103" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K103" s="32"/>
+      <c r="K103" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L103" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="M103" s="149" t="s">
+      <c r="M103" s="144" t="s">
         <v>235</v>
       </c>
-      <c r="N103" s="147"/>
+      <c r="N103" s="142"/>
     </row>
     <row r="104" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="43">
+      <c r="A104" s="41">
         <v>99</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -9606,20 +9927,22 @@
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="28"/>
-      <c r="J104" s="124" t="s">
+      <c r="J104" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K104" s="32"/>
+      <c r="K104" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L104" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M104" s="149" t="s">
+      <c r="M104" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="N104" s="147"/>
+      <c r="N104" s="142"/>
     </row>
     <row r="105" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="43">
+      <c r="A105" s="41">
         <v>100</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -9638,20 +9961,22 @@
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="28"/>
-      <c r="J105" s="124" t="s">
+      <c r="J105" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K105" s="32"/>
+      <c r="K105" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L105" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M105" s="149" t="s">
+      <c r="M105" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N105" s="147"/>
+      <c r="N105" s="142"/>
     </row>
     <row r="106" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="43">
+      <c r="A106" s="41">
         <v>101</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -9670,20 +9995,22 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="28"/>
-      <c r="J106" s="124" t="s">
+      <c r="J106" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K106" s="32"/>
+      <c r="K106" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L106" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M106" s="149" t="s">
+      <c r="M106" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="N106" s="147"/>
+      <c r="N106" s="142"/>
     </row>
     <row r="107" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="43">
+      <c r="A107" s="41">
         <v>102</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -9702,20 +10029,22 @@
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="28"/>
-      <c r="J107" s="124" t="s">
+      <c r="J107" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K107" s="32"/>
+      <c r="K107" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L107" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M107" s="149" t="s">
+      <c r="M107" s="144" t="s">
         <v>208</v>
       </c>
-      <c r="N107" s="147"/>
+      <c r="N107" s="142"/>
     </row>
     <row r="108" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="43">
+      <c r="A108" s="41">
         <v>103</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -9734,20 +10063,22 @@
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="28"/>
-      <c r="J108" s="124" t="s">
+      <c r="J108" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K108" s="32"/>
+      <c r="K108" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L108" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M108" s="149" t="s">
+      <c r="M108" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="N108" s="147"/>
+      <c r="N108" s="142"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="43">
+      <c r="A109" s="41">
         <v>104</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -9766,20 +10097,22 @@
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="28"/>
-      <c r="J109" s="124" t="s">
+      <c r="J109" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K109" s="32"/>
+      <c r="K109" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L109" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M109" s="149" t="s">
+      <c r="M109" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N109" s="147"/>
+      <c r="N109" s="142"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="43">
+      <c r="A110" s="41">
         <v>105</v>
       </c>
       <c r="B110" s="6" t="s">
@@ -9806,20 +10139,22 @@
       <c r="I110" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J110" s="124" t="s">
+      <c r="J110" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K110" s="32"/>
+      <c r="K110" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L110" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M110" s="149" t="s">
+      <c r="M110" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="N110" s="147"/>
+      <c r="N110" s="142"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="43">
+      <c r="A111" s="41">
         <v>106</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -9838,20 +10173,22 @@
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="28"/>
-      <c r="J111" s="124" t="s">
+      <c r="J111" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K111" s="32"/>
+      <c r="K111" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L111" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M111" s="149" t="s">
+      <c r="M111" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="147"/>
+      <c r="N111" s="142"/>
     </row>
     <row r="112" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="43">
+      <c r="A112" s="41">
         <v>107</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -9878,20 +10215,22 @@
       <c r="I112" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="J112" s="124" t="s">
+      <c r="J112" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K112" s="32"/>
+      <c r="K112" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L112" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="M112" s="149" t="s">
+      <c r="M112" s="144" t="s">
         <v>214</v>
       </c>
-      <c r="N112" s="147"/>
+      <c r="N112" s="142"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="43">
+      <c r="A113" s="41">
         <v>108</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -9910,86 +10249,92 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="28"/>
-      <c r="J113" s="124" t="s">
+      <c r="J113" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="K113" s="32"/>
+      <c r="K113" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L113" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M113" s="149" t="s">
+      <c r="M113" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="N113" s="147"/>
+      <c r="N113" s="142"/>
     </row>
     <row r="114" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="45">
+      <c r="A114" s="43">
         <v>109</v>
       </c>
-      <c r="B114" s="49" t="s">
+      <c r="B114" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="50">
+      <c r="C114" s="47">
         <v>531306</v>
       </c>
-      <c r="D114" s="50">
+      <c r="D114" s="47">
         <v>3238080021</v>
       </c>
-      <c r="E114" s="50">
+      <c r="E114" s="47">
         <v>89</v>
       </c>
-      <c r="F114" s="51"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="96"/>
-      <c r="J114" s="139" t="s">
+      <c r="F114" s="48"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
+      <c r="I114" s="93"/>
+      <c r="J114" s="134" t="s">
         <v>287</v>
       </c>
-      <c r="K114" s="120"/>
-      <c r="L114" s="118" t="s">
+      <c r="K114" s="172" t="s">
+        <v>146</v>
+      </c>
+      <c r="L114" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="M114" s="146" t="s">
+      <c r="M114" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="N114" s="162" t="s">
+      <c r="N114" s="157" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="35">
+      <c r="A115" s="33">
         <v>110</v>
       </c>
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="37">
+      <c r="C115" s="35">
         <v>600603</v>
       </c>
-      <c r="D115" s="37">
+      <c r="D115" s="35">
         <v>3550090011</v>
       </c>
-      <c r="E115" s="37">
+      <c r="E115" s="35">
         <v>2544</v>
       </c>
-      <c r="F115" s="38"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="40"/>
-      <c r="J115" s="126" t="s">
+      <c r="F115" s="36"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="K115" s="41"/>
-      <c r="L115" s="94" t="s">
+      <c r="K115" s="170" t="s">
+        <v>146</v>
+      </c>
+      <c r="L115" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="M115" s="156" t="s">
+      <c r="M115" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="N115" s="151"/>
+      <c r="N115" s="146"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="43">
+      <c r="A116" s="41">
         <v>111</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -10008,20 +10353,22 @@
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="28"/>
-      <c r="J116" s="124" t="s">
+      <c r="J116" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="K116" s="32"/>
+      <c r="K116" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L116" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M116" s="149" t="s">
+      <c r="M116" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="N116" s="147"/>
+      <c r="N116" s="142"/>
     </row>
     <row r="117" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="43">
+      <c r="A117" s="41">
         <v>112</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -10040,20 +10387,22 @@
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
       <c r="I117" s="28"/>
-      <c r="J117" s="124" t="s">
+      <c r="J117" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="K117" s="32"/>
+      <c r="K117" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L117" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M117" s="149" t="s">
+      <c r="M117" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="N117" s="147"/>
+      <c r="N117" s="142"/>
     </row>
     <row r="118" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="43">
+      <c r="A118" s="41">
         <v>113</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -10080,20 +10429,22 @@
       <c r="I118" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="J118" s="124" t="s">
+      <c r="J118" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="K118" s="32"/>
+      <c r="K118" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L118" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="M118" s="149" t="s">
+      <c r="M118" s="144" t="s">
         <v>213</v>
       </c>
-      <c r="N118" s="147"/>
+      <c r="N118" s="142"/>
     </row>
     <row r="119" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="43">
+      <c r="A119" s="41">
         <v>114</v>
       </c>
       <c r="B119" s="6" t="s">
@@ -10112,20 +10463,22 @@
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="28"/>
-      <c r="J119" s="124" t="s">
+      <c r="J119" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="K119" s="32"/>
+      <c r="K119" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L119" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M119" s="149" t="s">
+      <c r="M119" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="N119" s="147"/>
+      <c r="N119" s="142"/>
     </row>
     <row r="120" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="43">
+      <c r="A120" s="41">
         <v>115</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -10152,20 +10505,22 @@
       <c r="I120" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="J120" s="124" t="s">
+      <c r="J120" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="K120" s="32"/>
+      <c r="K120" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L120" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M120" s="149" t="s">
+      <c r="M120" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="N120" s="147"/>
+      <c r="N120" s="142"/>
     </row>
     <row r="121" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="43">
+      <c r="A121" s="41">
         <v>116</v>
       </c>
       <c r="B121" s="6" t="s">
@@ -10184,20 +10539,22 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
       <c r="I121" s="28"/>
-      <c r="J121" s="124" t="s">
+      <c r="J121" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="K121" s="32"/>
+      <c r="K121" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L121" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="M121" s="149" t="s">
+      <c r="M121" s="144" t="s">
         <v>248</v>
       </c>
-      <c r="N121" s="147"/>
+      <c r="N121" s="142"/>
     </row>
     <row r="122" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="43">
+      <c r="A122" s="41">
         <v>117</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -10216,20 +10573,22 @@
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
       <c r="I122" s="28"/>
-      <c r="J122" s="124" t="s">
+      <c r="J122" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="K122" s="32"/>
+      <c r="K122" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L122" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="M122" s="149" t="s">
+      <c r="M122" s="144" t="s">
         <v>207</v>
       </c>
-      <c r="N122" s="147"/>
+      <c r="N122" s="142"/>
     </row>
     <row r="123" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="43">
+      <c r="A123" s="41">
         <v>118</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -10248,20 +10607,22 @@
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
       <c r="I123" s="28"/>
-      <c r="J123" s="124" t="s">
+      <c r="J123" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="K123" s="32"/>
+      <c r="K123" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L123" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="M123" s="149" t="s">
+      <c r="M123" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="N123" s="147"/>
+      <c r="N123" s="142"/>
     </row>
     <row r="124" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="43">
+      <c r="A124" s="41">
         <v>119</v>
       </c>
       <c r="B124" s="12" t="s">
@@ -10288,20 +10649,22 @@
       <c r="I124" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J124" s="124" t="s">
+      <c r="J124" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="K124" s="33"/>
+      <c r="K124" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L124" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="M124" s="149" t="s">
+      <c r="M124" s="144" t="s">
         <v>208</v>
       </c>
-      <c r="N124" s="163"/>
+      <c r="N124" s="158"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="44">
+      <c r="A125" s="42">
         <v>120</v>
       </c>
       <c r="B125" s="25" t="s">
@@ -10318,20 +10681,20 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="31"/>
-      <c r="J125" s="132" t="s">
+      <c r="J125" s="127" t="s">
         <v>288</v>
       </c>
-      <c r="K125" s="34" t="s">
+      <c r="K125" s="173" t="s">
         <v>20</v>
       </c>
       <c r="L125" s="31"/>
-      <c r="M125" s="160"/>
-      <c r="N125" s="169" t="s">
+      <c r="M125" s="155"/>
+      <c r="N125" s="164" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="44">
+      <c r="A126" s="42">
         <v>121</v>
       </c>
       <c r="B126" s="25" t="s">
@@ -10348,52 +10711,51 @@
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="31"/>
-      <c r="J126" s="132" t="s">
+      <c r="J126" s="127" t="s">
         <v>288</v>
       </c>
-      <c r="K126" s="34" t="s">
+      <c r="K126" s="173" t="s">
         <v>20</v>
       </c>
       <c r="L126" s="31"/>
-      <c r="M126" s="160"/>
-      <c r="N126" s="170" t="s">
+      <c r="M126" s="155"/>
+      <c r="N126" s="165" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="45">
+      <c r="A127" s="43">
         <v>122</v>
       </c>
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="C127" s="46">
+      <c r="C127" s="44">
         <v>700116</v>
       </c>
-      <c r="D127" s="46">
+      <c r="D127" s="44">
         <v>3513080042</v>
       </c>
-      <c r="E127" s="46"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="47"/>
-      <c r="J127" s="139" t="s">
+      <c r="E127" s="44"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="44"/>
+      <c r="I127" s="45"/>
+      <c r="J127" s="134" t="s">
         <v>288</v>
       </c>
-      <c r="K127" s="48" t="s">
+      <c r="K127" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="L127" s="47"/>
-      <c r="M127" s="164"/>
-      <c r="N127" s="171" t="s">
+      <c r="L127" s="45"/>
+      <c r="M127" s="159"/>
+      <c r="N127" s="166" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:A3"/>
